--- a/biology/Botanique/Bagnoli_di_Sopra_bianco_classico/Bagnoli_di_Sopra_bianco_classico.xlsx
+++ b/biology/Botanique/Bagnoli_di_Sopra_bianco_classico/Bagnoli_di_Sopra_bianco_classico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bagnoli di Sopra bianco classico est un vin blanc italien de la région Vénétie doté d'une appellation DOC depuis le 16 août 1995. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Padoue dans la commune de Bagnoli di Sopra. Le vignoble Colli Euganei est à quelques kilomètres.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille plus ou moins intense
 odeur : vineux, caractéristique, agréablement parfumé
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +649,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :
 Padoue  (1995/96)  371,0
